--- a/data_target_1028.xlsx
+++ b/data_target_1028.xlsx
@@ -358,13 +358,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="n">
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -372,10 +372,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -391,13 +391,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -424,13 +424,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -457,13 +457,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -490,13 +490,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -523,13 +523,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -556,13 +556,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -589,13 +589,13 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -622,13 +622,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -655,13 +655,13 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -688,13 +688,13 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -721,13 +721,13 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -754,13 +754,13 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -768,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -787,13 +787,13 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -820,13 +820,13 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -853,13 +853,13 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -886,13 +886,13 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -919,13 +919,13 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -952,13 +952,13 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -985,13 +985,13 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1018,13 +1018,13 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1051,13 +1051,13 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1084,13 +1084,13 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1117,13 +1117,13 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1150,13 +1150,13 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1164,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1183,13 +1183,13 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1216,13 +1216,13 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1249,13 +1249,13 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1282,13 +1282,13 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1315,13 +1315,13 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1348,13 +1348,13 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1381,13 +1381,13 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1414,13 +1414,13 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1447,13 +1447,13 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1461,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1480,13 +1480,13 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1513,13 +1513,13 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1546,13 +1546,13 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1579,13 +1579,13 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1612,13 +1612,13 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1645,13 +1645,13 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1659,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1678,13 +1678,13 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1711,13 +1711,13 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1744,13 +1744,13 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1777,13 +1777,13 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1810,13 +1810,13 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1843,13 +1843,13 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1876,13 +1876,13 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1890,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1909,13 +1909,13 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1942,13 +1942,13 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1975,13 +1975,13 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2008,13 +2008,13 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2041,13 +2041,13 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2074,13 +2074,13 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2107,13 +2107,13 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2140,13 +2140,13 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2154,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2173,13 +2173,13 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2187,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2206,13 +2206,13 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2239,13 +2239,13 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2272,13 +2272,13 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2305,13 +2305,13 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2319,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2338,13 +2338,13 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2371,13 +2371,13 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2404,13 +2404,13 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2437,13 +2437,13 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2470,13 +2470,13 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2503,13 +2503,13 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2536,13 +2536,13 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2569,13 +2569,13 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2602,13 +2602,13 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2635,13 +2635,13 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2668,13 +2668,13 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2701,13 +2701,13 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2734,13 +2734,13 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2748,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2767,13 +2767,13 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2800,13 +2800,13 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2814,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2833,13 +2833,13 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2847,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2866,13 +2866,13 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2899,13 +2899,13 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B232" t="n">
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2932,13 +2932,13 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2946,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2965,13 +2965,13 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2998,13 +2998,13 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B241" t="n">
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3031,13 +3031,13 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3045,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3064,13 +3064,13 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B247" t="n">
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3078,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3097,13 +3097,13 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3130,13 +3130,13 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3144,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3163,13 +3163,13 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B256" t="n">
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3177,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3196,13 +3196,13 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B259" t="n">
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3229,13 +3229,13 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B262" t="n">
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3262,13 +3262,13 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B265" t="n">
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3276,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3295,13 +3295,13 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B268" t="n">
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3309,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3328,13 +3328,13 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B271" t="n">
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3342,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3361,13 +3361,13 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B274" t="n">
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3375,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3394,13 +3394,13 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B277" t="n">
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3427,13 +3427,13 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B280" t="n">
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3460,13 +3460,13 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B283" t="n">
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3493,13 +3493,13 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B286" t="n">
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3507,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3526,13 +3526,13 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B289" t="n">
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3540,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3559,13 +3559,13 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B292" t="n">
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3573,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3592,13 +3592,13 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B295" t="n">
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3606,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3625,13 +3625,13 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B298" t="n">
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3658,13 +3658,13 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B301" t="n">
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3691,13 +3691,13 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B304" t="n">
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3724,13 +3724,13 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B307" t="n">
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3738,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3757,13 +3757,13 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B310" t="n">
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3771,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3790,13 +3790,13 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3804,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3823,13 +3823,13 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B316" t="n">
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3856,13 +3856,13 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B319" t="n">
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3870,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3889,13 +3889,13 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B322" t="n">
         <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3922,13 +3922,13 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3936,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3955,13 +3955,13 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B328" t="n">
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3969,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3988,13 +3988,13 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B331" t="n">
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4021,13 +4021,13 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B334" t="n">
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4035,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4054,13 +4054,13 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B337" t="n">
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4087,13 +4087,13 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B340" t="n">
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4120,13 +4120,13 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B343" t="n">
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4134,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4153,13 +4153,13 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B346" t="n">
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4167,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4186,13 +4186,13 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B349" t="n">
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4219,13 +4219,13 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B352" t="n">
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4233,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4252,13 +4252,13 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B355" t="n">
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4266,10 +4266,10 @@
         <v>0</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4285,13 +4285,13 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B358" t="n">
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4318,13 +4318,13 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B361" t="n">
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4332,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4351,13 +4351,13 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B364" t="n">
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4365,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4384,13 +4384,13 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B367" t="n">
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4398,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4417,13 +4417,13 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B370" t="n">
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4431,10 +4431,10 @@
         <v>0</v>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4450,13 +4450,13 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B373" t="n">
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4464,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4483,13 +4483,13 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B376" t="n">
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4516,13 +4516,13 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B379" t="n">
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4530,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4549,13 +4549,13 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B382" t="n">
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4563,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4582,13 +4582,13 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B385" t="n">
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4596,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4615,13 +4615,13 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B388" t="n">
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4629,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4648,13 +4648,13 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4662,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4681,13 +4681,13 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B394" t="n">
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4695,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4714,13 +4714,13 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B397" t="n">
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4728,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4747,13 +4747,13 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B400" t="n">
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4761,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4780,13 +4780,13 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B403" t="n">
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4794,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4813,13 +4813,13 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B406" t="n">
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4827,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4846,13 +4846,13 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4860,10 +4860,10 @@
         <v>0</v>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4879,13 +4879,13 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B412" t="n">
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4893,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4912,13 +4912,13 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B415" t="n">
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4926,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4945,13 +4945,13 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B418" t="n">
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4959,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4978,13 +4978,13 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B421" t="n">
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -4992,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5011,13 +5011,13 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B424" t="n">
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5025,10 +5025,10 @@
         <v>0</v>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5044,13 +5044,13 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5077,13 +5077,13 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5091,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5110,13 +5110,13 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B433" t="n">
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5124,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5143,13 +5143,13 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B436" t="n">
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5157,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5176,13 +5176,13 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B439" t="n">
         <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5190,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5209,13 +5209,13 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B442" t="n">
         <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5223,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5242,13 +5242,13 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B445" t="n">
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5256,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5275,13 +5275,13 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B448" t="n">
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5289,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5308,13 +5308,13 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B451" t="n">
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5322,10 +5322,10 @@
         <v>0</v>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5341,13 +5341,13 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B454" t="n">
         <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5355,10 +5355,10 @@
         <v>0</v>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5374,13 +5374,13 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B457" t="n">
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5388,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5407,13 +5407,13 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B460" t="n">
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5421,10 +5421,10 @@
         <v>0</v>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5440,13 +5440,13 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B463" t="n">
         <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5454,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5473,13 +5473,13 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B466" t="n">
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5487,10 +5487,10 @@
         <v>0</v>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5506,13 +5506,13 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B469" t="n">
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5520,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5539,13 +5539,13 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B472" t="n">
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5553,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5572,13 +5572,13 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B475" t="n">
         <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5586,10 +5586,10 @@
         <v>0</v>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5605,13 +5605,13 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B478" t="n">
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5619,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5638,13 +5638,13 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B481" t="n">
         <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5652,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5671,13 +5671,13 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B484" t="n">
         <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5685,10 +5685,10 @@
         <v>0</v>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5704,13 +5704,13 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B487" t="n">
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5718,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5737,13 +5737,13 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B490" t="n">
         <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5751,10 +5751,10 @@
         <v>0</v>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5770,13 +5770,13 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B493" t="n">
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5784,10 +5784,10 @@
         <v>0</v>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5803,13 +5803,13 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B496" t="n">
         <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5817,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5836,13 +5836,13 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B499" t="n">
         <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5850,10 +5850,10 @@
         <v>0</v>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5869,13 +5869,13 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B502" t="n">
         <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5883,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5902,13 +5902,13 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B505" t="n">
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5916,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5935,13 +5935,13 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B508" t="n">
         <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5949,10 +5949,10 @@
         <v>0</v>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5968,13 +5968,13 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B511" t="n">
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -5982,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6001,13 +6001,13 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B514" t="n">
         <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6015,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6034,13 +6034,13 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B517" t="n">
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6048,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6067,13 +6067,13 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B520" t="n">
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6081,10 +6081,10 @@
         <v>0</v>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6100,13 +6100,13 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B523" t="n">
         <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6114,10 +6114,10 @@
         <v>0</v>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6133,13 +6133,13 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B526" t="n">
         <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6147,10 +6147,10 @@
         <v>0</v>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6166,13 +6166,13 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B529" t="n">
         <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6180,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="B530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6199,13 +6199,13 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B532" t="n">
         <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6213,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6232,13 +6232,13 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B535" t="n">
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6246,10 +6246,10 @@
         <v>0</v>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6265,13 +6265,13 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B538" t="n">
         <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6279,10 +6279,10 @@
         <v>0</v>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6298,13 +6298,13 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B541" t="n">
         <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6331,13 +6331,13 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B544" t="n">
         <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6345,10 +6345,10 @@
         <v>0</v>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6364,13 +6364,13 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B547" t="n">
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6378,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6397,13 +6397,13 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B550" t="n">
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6430,13 +6430,13 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B553" t="n">
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6444,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6463,13 +6463,13 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B556" t="n">
         <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6477,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6496,13 +6496,13 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B559" t="n">
         <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6510,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6529,13 +6529,13 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B562" t="n">
         <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6543,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6562,13 +6562,13 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B565" t="n">
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6576,10 +6576,10 @@
         <v>0</v>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6595,13 +6595,13 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B568" t="n">
         <v>0</v>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6609,10 +6609,10 @@
         <v>0</v>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6628,13 +6628,13 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B571" t="n">
         <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6642,10 +6642,10 @@
         <v>0</v>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6661,13 +6661,13 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B574" t="n">
         <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6675,10 +6675,10 @@
         <v>0</v>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6694,13 +6694,13 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B577" t="n">
         <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6708,10 +6708,10 @@
         <v>0</v>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6727,13 +6727,13 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B580" t="n">
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6741,10 +6741,10 @@
         <v>0</v>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6760,13 +6760,13 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B583" t="n">
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6774,10 +6774,10 @@
         <v>0</v>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6793,13 +6793,13 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B586" t="n">
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6807,10 +6807,10 @@
         <v>0</v>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6826,13 +6826,13 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B589" t="n">
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6840,10 +6840,10 @@
         <v>0</v>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6859,13 +6859,13 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B592" t="n">
         <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6873,10 +6873,10 @@
         <v>0</v>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6892,13 +6892,13 @@
     </row>
     <row r="595" spans="1:3">
       <c r="A595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B595" t="n">
         <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6906,10 +6906,10 @@
         <v>0</v>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6925,13 +6925,13 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B598" t="n">
         <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6939,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6958,13 +6958,13 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B601" t="n">
         <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -6991,13 +6991,13 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B604" t="n">
         <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7005,10 +7005,10 @@
         <v>0</v>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7024,13 +7024,13 @@
     </row>
     <row r="607" spans="1:3">
       <c r="A607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B607" t="n">
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7038,10 +7038,10 @@
         <v>0</v>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7057,13 +7057,13 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B610" t="n">
         <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7071,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7090,13 +7090,13 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B613" t="n">
         <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7104,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7123,13 +7123,13 @@
     </row>
     <row r="616" spans="1:3">
       <c r="A616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B616" t="n">
         <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7137,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7156,13 +7156,13 @@
     </row>
     <row r="619" spans="1:3">
       <c r="A619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B619" t="n">
         <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7170,10 +7170,10 @@
         <v>0</v>
       </c>
       <c r="B620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7189,13 +7189,13 @@
     </row>
     <row r="622" spans="1:3">
       <c r="A622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B622" t="n">
         <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7203,10 +7203,10 @@
         <v>0</v>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7222,13 +7222,13 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B625" t="n">
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7236,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7255,13 +7255,13 @@
     </row>
     <row r="628" spans="1:3">
       <c r="A628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B628" t="n">
         <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7269,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7288,13 +7288,13 @@
     </row>
     <row r="631" spans="1:3">
       <c r="A631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B631" t="n">
         <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7302,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7321,13 +7321,13 @@
     </row>
     <row r="634" spans="1:3">
       <c r="A634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B634" t="n">
         <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7335,10 +7335,10 @@
         <v>0</v>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7354,13 +7354,13 @@
     </row>
     <row r="637" spans="1:3">
       <c r="A637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B637" t="n">
         <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7368,10 +7368,10 @@
         <v>0</v>
       </c>
       <c r="B638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7387,13 +7387,13 @@
     </row>
     <row r="640" spans="1:3">
       <c r="A640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B640" t="n">
         <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7401,10 +7401,10 @@
         <v>0</v>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7420,13 +7420,13 @@
     </row>
     <row r="643" spans="1:3">
       <c r="A643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B643" t="n">
         <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7434,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7453,13 +7453,13 @@
     </row>
     <row r="646" spans="1:3">
       <c r="A646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B646" t="n">
         <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7467,10 +7467,10 @@
         <v>0</v>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7486,13 +7486,13 @@
     </row>
     <row r="649" spans="1:3">
       <c r="A649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B649" t="n">
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7500,10 +7500,10 @@
         <v>0</v>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7519,13 +7519,13 @@
     </row>
     <row r="652" spans="1:3">
       <c r="A652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B652" t="n">
         <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7533,10 +7533,10 @@
         <v>0</v>
       </c>
       <c r="B653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7552,13 +7552,13 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B655" t="n">
         <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7566,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7585,13 +7585,13 @@
     </row>
     <row r="658" spans="1:3">
       <c r="A658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B658" t="n">
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7618,13 +7618,13 @@
     </row>
     <row r="661" spans="1:3">
       <c r="A661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B661" t="n">
         <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7632,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7651,13 +7651,13 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B664" t="n">
         <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7665,10 +7665,10 @@
         <v>0</v>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7684,13 +7684,13 @@
     </row>
     <row r="667" spans="1:3">
       <c r="A667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B667" t="n">
         <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7698,10 +7698,10 @@
         <v>0</v>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7717,13 +7717,13 @@
     </row>
     <row r="670" spans="1:3">
       <c r="A670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B670" t="n">
         <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7731,10 +7731,10 @@
         <v>0</v>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7750,13 +7750,13 @@
     </row>
     <row r="673" spans="1:3">
       <c r="A673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B673" t="n">
         <v>0</v>
       </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7764,10 +7764,10 @@
         <v>0</v>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7783,13 +7783,13 @@
     </row>
     <row r="676" spans="1:3">
       <c r="A676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B676" t="n">
         <v>0</v>
       </c>
       <c r="C676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7797,10 +7797,10 @@
         <v>0</v>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7816,13 +7816,13 @@
     </row>
     <row r="679" spans="1:3">
       <c r="A679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B679" t="n">
         <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7830,10 +7830,10 @@
         <v>0</v>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7849,13 +7849,13 @@
     </row>
     <row r="682" spans="1:3">
       <c r="A682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B682" t="n">
         <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7863,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7882,13 +7882,13 @@
     </row>
     <row r="685" spans="1:3">
       <c r="A685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B685" t="n">
         <v>0</v>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7896,10 +7896,10 @@
         <v>0</v>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7915,13 +7915,13 @@
     </row>
     <row r="688" spans="1:3">
       <c r="A688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B688" t="n">
         <v>0</v>
       </c>
       <c r="C688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7929,10 +7929,10 @@
         <v>0</v>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7948,13 +7948,13 @@
     </row>
     <row r="691" spans="1:3">
       <c r="A691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B691" t="n">
         <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7962,10 +7962,10 @@
         <v>0</v>
       </c>
       <c r="B692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -7981,13 +7981,13 @@
     </row>
     <row r="694" spans="1:3">
       <c r="A694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B694" t="n">
         <v>0</v>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -7995,10 +7995,10 @@
         <v>0</v>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8014,13 +8014,13 @@
     </row>
     <row r="697" spans="1:3">
       <c r="A697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B697" t="n">
         <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8028,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8047,13 +8047,13 @@
     </row>
     <row r="700" spans="1:3">
       <c r="A700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B700" t="n">
         <v>0</v>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="B701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8080,13 +8080,13 @@
     </row>
     <row r="703" spans="1:3">
       <c r="A703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B703" t="n">
         <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8094,10 +8094,10 @@
         <v>0</v>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8113,13 +8113,13 @@
     </row>
     <row r="706" spans="1:3">
       <c r="A706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B706" t="n">
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8127,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8146,13 +8146,13 @@
     </row>
     <row r="709" spans="1:3">
       <c r="A709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B709" t="n">
         <v>0</v>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8160,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8179,13 +8179,13 @@
     </row>
     <row r="712" spans="1:3">
       <c r="A712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B712" t="n">
         <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8193,10 +8193,10 @@
         <v>0</v>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8212,13 +8212,13 @@
     </row>
     <row r="715" spans="1:3">
       <c r="A715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B715" t="n">
         <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8226,10 +8226,10 @@
         <v>0</v>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8245,13 +8245,13 @@
     </row>
     <row r="718" spans="1:3">
       <c r="A718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B718" t="n">
         <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8259,10 +8259,10 @@
         <v>0</v>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8278,13 +8278,13 @@
     </row>
     <row r="721" spans="1:3">
       <c r="A721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B721" t="n">
         <v>0</v>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8292,10 +8292,10 @@
         <v>0</v>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8311,13 +8311,13 @@
     </row>
     <row r="724" spans="1:3">
       <c r="A724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B724" t="n">
         <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8325,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8344,13 +8344,13 @@
     </row>
     <row r="727" spans="1:3">
       <c r="A727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B727" t="n">
         <v>0</v>
       </c>
       <c r="C727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8358,10 +8358,10 @@
         <v>0</v>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8377,13 +8377,13 @@
     </row>
     <row r="730" spans="1:3">
       <c r="A730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B730" t="n">
         <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="B731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8410,13 +8410,13 @@
     </row>
     <row r="733" spans="1:3">
       <c r="A733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B733" t="n">
         <v>0</v>
       </c>
       <c r="C733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8424,10 +8424,10 @@
         <v>0</v>
       </c>
       <c r="B734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8443,13 +8443,13 @@
     </row>
     <row r="736" spans="1:3">
       <c r="A736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B736" t="n">
         <v>0</v>
       </c>
       <c r="C736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8457,10 +8457,10 @@
         <v>0</v>
       </c>
       <c r="B737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8476,13 +8476,13 @@
     </row>
     <row r="739" spans="1:3">
       <c r="A739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B739" t="n">
         <v>0</v>
       </c>
       <c r="C739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8490,10 +8490,10 @@
         <v>0</v>
       </c>
       <c r="B740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8509,13 +8509,13 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B742" t="n">
         <v>0</v>
       </c>
       <c r="C742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8523,10 +8523,10 @@
         <v>0</v>
       </c>
       <c r="B743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8542,13 +8542,13 @@
     </row>
     <row r="745" spans="1:3">
       <c r="A745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B745" t="n">
         <v>0</v>
       </c>
       <c r="C745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="B746" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8575,13 +8575,13 @@
     </row>
     <row r="748" spans="1:3">
       <c r="A748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B748" t="n">
         <v>0</v>
       </c>
       <c r="C748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8589,10 +8589,10 @@
         <v>0</v>
       </c>
       <c r="B749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8608,13 +8608,13 @@
     </row>
     <row r="751" spans="1:3">
       <c r="A751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B751" t="n">
         <v>0</v>
       </c>
       <c r="C751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8622,10 +8622,10 @@
         <v>0</v>
       </c>
       <c r="B752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8641,13 +8641,13 @@
     </row>
     <row r="754" spans="1:3">
       <c r="A754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B754" t="n">
         <v>0</v>
       </c>
       <c r="C754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8655,10 +8655,10 @@
         <v>0</v>
       </c>
       <c r="B755" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8674,13 +8674,13 @@
     </row>
     <row r="757" spans="1:3">
       <c r="A757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B757" t="n">
         <v>0</v>
       </c>
       <c r="C757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8688,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="B758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8707,13 +8707,13 @@
     </row>
     <row r="760" spans="1:3">
       <c r="A760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B760" t="n">
         <v>0</v>
       </c>
       <c r="C760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8721,10 +8721,10 @@
         <v>0</v>
       </c>
       <c r="B761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8740,13 +8740,13 @@
     </row>
     <row r="763" spans="1:3">
       <c r="A763" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B763" t="n">
         <v>0</v>
       </c>
       <c r="C763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8754,10 +8754,10 @@
         <v>0</v>
       </c>
       <c r="B764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -8773,13 +8773,13 @@
     </row>
     <row r="766" spans="1:3">
       <c r="A766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B766" t="n">
         <v>0</v>
       </c>
       <c r="C766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="B767" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C767" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -8806,13 +8806,13 @@
     </row>
     <row r="769" spans="1:3">
       <c r="A769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B769" t="n">
         <v>0</v>
       </c>
       <c r="C769" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -8820,10 +8820,10 @@
         <v>0</v>
       </c>
       <c r="B770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -8839,13 +8839,13 @@
     </row>
     <row r="772" spans="1:3">
       <c r="A772" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B772" t="n">
         <v>0</v>
       </c>
       <c r="C772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -8853,10 +8853,10 @@
         <v>0</v>
       </c>
       <c r="B773" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -8872,13 +8872,13 @@
     </row>
     <row r="775" spans="1:3">
       <c r="A775" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B775" t="n">
         <v>0</v>
       </c>
       <c r="C775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -8886,10 +8886,10 @@
         <v>0</v>
       </c>
       <c r="B776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -8905,13 +8905,13 @@
     </row>
     <row r="778" spans="1:3">
       <c r="A778" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B778" t="n">
         <v>0</v>
       </c>
       <c r="C778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -8919,10 +8919,10 @@
         <v>0</v>
       </c>
       <c r="B779" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -8938,13 +8938,13 @@
     </row>
     <row r="781" spans="1:3">
       <c r="A781" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B781" t="n">
         <v>0</v>
       </c>
       <c r="C781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -8952,10 +8952,10 @@
         <v>0</v>
       </c>
       <c r="B782" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -8971,13 +8971,13 @@
     </row>
     <row r="784" spans="1:3">
       <c r="A784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B784" t="n">
         <v>0</v>
       </c>
       <c r="C784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -8985,10 +8985,10 @@
         <v>0</v>
       </c>
       <c r="B785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9004,13 +9004,13 @@
     </row>
     <row r="787" spans="1:3">
       <c r="A787" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B787" t="n">
         <v>0</v>
       </c>
       <c r="C787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="B788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9037,13 +9037,13 @@
     </row>
     <row r="790" spans="1:3">
       <c r="A790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B790" t="n">
         <v>0</v>
       </c>
       <c r="C790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9051,10 +9051,10 @@
         <v>0</v>
       </c>
       <c r="B791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9070,13 +9070,13 @@
     </row>
     <row r="793" spans="1:3">
       <c r="A793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B793" t="n">
         <v>0</v>
       </c>
       <c r="C793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="B794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9103,13 +9103,13 @@
     </row>
     <row r="796" spans="1:3">
       <c r="A796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B796" t="n">
         <v>0</v>
       </c>
       <c r="C796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9117,10 +9117,10 @@
         <v>0</v>
       </c>
       <c r="B797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9136,13 +9136,13 @@
     </row>
     <row r="799" spans="1:3">
       <c r="A799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B799" t="n">
         <v>0</v>
       </c>
       <c r="C799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9150,10 +9150,10 @@
         <v>0</v>
       </c>
       <c r="B800" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9169,13 +9169,13 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B802" t="n">
         <v>0</v>
       </c>
       <c r="C802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9183,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="B803" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9202,13 +9202,13 @@
     </row>
     <row r="805" spans="1:3">
       <c r="A805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B805" t="n">
         <v>0</v>
       </c>
       <c r="C805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9216,10 +9216,10 @@
         <v>0</v>
       </c>
       <c r="B806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9235,13 +9235,13 @@
     </row>
     <row r="808" spans="1:3">
       <c r="A808" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B808" t="n">
         <v>0</v>
       </c>
       <c r="C808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="B809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9268,13 +9268,13 @@
     </row>
     <row r="811" spans="1:3">
       <c r="A811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B811" t="n">
         <v>0</v>
       </c>
       <c r="C811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9282,10 +9282,10 @@
         <v>0</v>
       </c>
       <c r="B812" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9301,13 +9301,13 @@
     </row>
     <row r="814" spans="1:3">
       <c r="A814" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B814" t="n">
         <v>0</v>
       </c>
       <c r="C814" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9315,10 +9315,10 @@
         <v>0</v>
       </c>
       <c r="B815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9334,13 +9334,13 @@
     </row>
     <row r="817" spans="1:3">
       <c r="A817" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B817" t="n">
         <v>0</v>
       </c>
       <c r="C817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9348,10 +9348,10 @@
         <v>0</v>
       </c>
       <c r="B818" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9367,13 +9367,13 @@
     </row>
     <row r="820" spans="1:3">
       <c r="A820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B820" t="n">
         <v>0</v>
       </c>
       <c r="C820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9381,10 +9381,10 @@
         <v>0</v>
       </c>
       <c r="B821" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9400,13 +9400,13 @@
     </row>
     <row r="823" spans="1:3">
       <c r="A823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B823" t="n">
         <v>0</v>
       </c>
       <c r="C823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9414,10 +9414,10 @@
         <v>0</v>
       </c>
       <c r="B824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9433,13 +9433,13 @@
     </row>
     <row r="826" spans="1:3">
       <c r="A826" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B826" t="n">
         <v>0</v>
       </c>
       <c r="C826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9447,10 +9447,10 @@
         <v>0</v>
       </c>
       <c r="B827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9466,13 +9466,13 @@
     </row>
     <row r="829" spans="1:3">
       <c r="A829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B829" t="n">
         <v>0</v>
       </c>
       <c r="C829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="B830" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9499,13 +9499,13 @@
     </row>
     <row r="832" spans="1:3">
       <c r="A832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B832" t="n">
         <v>0</v>
       </c>
       <c r="C832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9513,10 +9513,10 @@
         <v>0</v>
       </c>
       <c r="B833" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9532,13 +9532,13 @@
     </row>
     <row r="835" spans="1:3">
       <c r="A835" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B835" t="n">
         <v>0</v>
       </c>
       <c r="C835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9546,10 +9546,10 @@
         <v>0</v>
       </c>
       <c r="B836" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9565,13 +9565,13 @@
     </row>
     <row r="838" spans="1:3">
       <c r="A838" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B838" t="n">
         <v>0</v>
       </c>
       <c r="C838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9579,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="B839" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9598,13 +9598,13 @@
     </row>
     <row r="841" spans="1:3">
       <c r="A841" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B841" t="n">
         <v>0</v>
       </c>
       <c r="C841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9612,10 +9612,10 @@
         <v>0</v>
       </c>
       <c r="B842" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9631,13 +9631,13 @@
     </row>
     <row r="844" spans="1:3">
       <c r="A844" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B844" t="n">
         <v>0</v>
       </c>
       <c r="C844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9645,10 +9645,10 @@
         <v>0</v>
       </c>
       <c r="B845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9664,13 +9664,13 @@
     </row>
     <row r="847" spans="1:3">
       <c r="A847" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B847" t="n">
         <v>0</v>
       </c>
       <c r="C847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9678,10 +9678,10 @@
         <v>0</v>
       </c>
       <c r="B848" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9697,13 +9697,13 @@
     </row>
     <row r="850" spans="1:3">
       <c r="A850" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B850" t="n">
         <v>0</v>
       </c>
       <c r="C850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="B851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9730,13 +9730,13 @@
     </row>
     <row r="853" spans="1:3">
       <c r="A853" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B853" t="n">
         <v>0</v>
       </c>
       <c r="C853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9744,10 +9744,10 @@
         <v>0</v>
       </c>
       <c r="B854" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9763,13 +9763,13 @@
     </row>
     <row r="856" spans="1:3">
       <c r="A856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B856" t="n">
         <v>0</v>
       </c>
       <c r="C856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9777,10 +9777,10 @@
         <v>0</v>
       </c>
       <c r="B857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9796,13 +9796,13 @@
     </row>
     <row r="859" spans="1:3">
       <c r="A859" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B859" t="n">
         <v>0</v>
       </c>
       <c r="C859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9810,10 +9810,10 @@
         <v>0</v>
       </c>
       <c r="B860" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9829,13 +9829,13 @@
     </row>
     <row r="862" spans="1:3">
       <c r="A862" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B862" t="n">
         <v>0</v>
       </c>
       <c r="C862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9843,10 +9843,10 @@
         <v>0</v>
       </c>
       <c r="B863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9862,13 +9862,13 @@
     </row>
     <row r="865" spans="1:3">
       <c r="A865" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B865" t="n">
         <v>0</v>
       </c>
       <c r="C865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9876,10 +9876,10 @@
         <v>0</v>
       </c>
       <c r="B866" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9895,13 +9895,13 @@
     </row>
     <row r="868" spans="1:3">
       <c r="A868" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B868" t="n">
         <v>0</v>
       </c>
       <c r="C868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9909,10 +9909,10 @@
         <v>0</v>
       </c>
       <c r="B869" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9928,13 +9928,13 @@
     </row>
     <row r="871" spans="1:3">
       <c r="A871" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B871" t="n">
         <v>0</v>
       </c>
       <c r="C871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9942,10 +9942,10 @@
         <v>0</v>
       </c>
       <c r="B872" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -9961,13 +9961,13 @@
     </row>
     <row r="874" spans="1:3">
       <c r="A874" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B874" t="n">
         <v>0</v>
       </c>
       <c r="C874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -9975,10 +9975,10 @@
         <v>0</v>
       </c>
       <c r="B875" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -9994,13 +9994,13 @@
     </row>
     <row r="877" spans="1:3">
       <c r="A877" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B877" t="n">
         <v>0</v>
       </c>
       <c r="C877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -10008,10 +10008,10 @@
         <v>0</v>
       </c>
       <c r="B878" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -10027,13 +10027,13 @@
     </row>
     <row r="880" spans="1:3">
       <c r="A880" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B880" t="n">
         <v>0</v>
       </c>
       <c r="C880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10041,10 +10041,10 @@
         <v>0</v>
       </c>
       <c r="B881" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10060,13 +10060,13 @@
     </row>
     <row r="883" spans="1:3">
       <c r="A883" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B883" t="n">
         <v>0</v>
       </c>
       <c r="C883" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10074,10 +10074,10 @@
         <v>0</v>
       </c>
       <c r="B884" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C884" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10093,13 +10093,13 @@
     </row>
     <row r="886" spans="1:3">
       <c r="A886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B886" t="n">
         <v>0</v>
       </c>
       <c r="C886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="B887" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10126,13 +10126,13 @@
     </row>
     <row r="889" spans="1:3">
       <c r="A889" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B889" t="n">
         <v>0</v>
       </c>
       <c r="C889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10140,10 +10140,10 @@
         <v>0</v>
       </c>
       <c r="B890" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C890" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10159,13 +10159,13 @@
     </row>
     <row r="892" spans="1:3">
       <c r="A892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B892" t="n">
         <v>0</v>
       </c>
       <c r="C892" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10173,10 +10173,10 @@
         <v>0</v>
       </c>
       <c r="B893" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10192,13 +10192,13 @@
     </row>
     <row r="895" spans="1:3">
       <c r="A895" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B895" t="n">
         <v>0</v>
       </c>
       <c r="C895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="B896" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C896" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10225,13 +10225,13 @@
     </row>
     <row r="898" spans="1:3">
       <c r="A898" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B898" t="n">
         <v>0</v>
       </c>
       <c r="C898" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10239,10 +10239,10 @@
         <v>0</v>
       </c>
       <c r="B899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C899" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10258,13 +10258,13 @@
     </row>
     <row r="901" spans="1:3">
       <c r="A901" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B901" t="n">
         <v>0</v>
       </c>
       <c r="C901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10272,10 +10272,10 @@
         <v>0</v>
       </c>
       <c r="B902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -10291,13 +10291,13 @@
     </row>
     <row r="904" spans="1:3">
       <c r="A904" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B904" t="n">
         <v>0</v>
       </c>
       <c r="C904" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10305,10 +10305,10 @@
         <v>0</v>
       </c>
       <c r="B905" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10324,13 +10324,13 @@
     </row>
     <row r="907" spans="1:3">
       <c r="A907" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B907" t="n">
         <v>0</v>
       </c>
       <c r="C907" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10338,10 +10338,10 @@
         <v>0</v>
       </c>
       <c r="B908" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C908" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10357,13 +10357,13 @@
     </row>
     <row r="910" spans="1:3">
       <c r="A910" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B910" t="n">
         <v>0</v>
       </c>
       <c r="C910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10371,10 +10371,10 @@
         <v>0</v>
       </c>
       <c r="B911" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C911" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10390,13 +10390,13 @@
     </row>
     <row r="913" spans="1:3">
       <c r="A913" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B913" t="n">
         <v>0</v>
       </c>
       <c r="C913" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10404,10 +10404,10 @@
         <v>0</v>
       </c>
       <c r="B914" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C914" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10423,13 +10423,13 @@
     </row>
     <row r="916" spans="1:3">
       <c r="A916" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B916" t="n">
         <v>0</v>
       </c>
       <c r="C916" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10437,10 +10437,10 @@
         <v>0</v>
       </c>
       <c r="B917" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C917" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10456,13 +10456,13 @@
     </row>
     <row r="919" spans="1:3">
       <c r="A919" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B919" t="n">
         <v>0</v>
       </c>
       <c r="C919" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10470,10 +10470,10 @@
         <v>0</v>
       </c>
       <c r="B920" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10489,13 +10489,13 @@
     </row>
     <row r="922" spans="1:3">
       <c r="A922" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B922" t="n">
         <v>0</v>
       </c>
       <c r="C922" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10503,10 +10503,10 @@
         <v>0</v>
       </c>
       <c r="B923" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C923" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -10522,13 +10522,13 @@
     </row>
     <row r="925" spans="1:3">
       <c r="A925" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B925" t="n">
         <v>0</v>
       </c>
       <c r="C925" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10536,10 +10536,10 @@
         <v>0</v>
       </c>
       <c r="B926" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C926" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10555,13 +10555,13 @@
     </row>
     <row r="928" spans="1:3">
       <c r="A928" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B928" t="n">
         <v>0</v>
       </c>
       <c r="C928" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -10569,10 +10569,10 @@
         <v>0</v>
       </c>
       <c r="B929" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:3">
@@ -10588,13 +10588,13 @@
     </row>
     <row r="931" spans="1:3">
       <c r="A931" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B931" t="n">
         <v>0</v>
       </c>
       <c r="C931" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -10602,10 +10602,10 @@
         <v>0</v>
       </c>
       <c r="B932" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C932" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -10621,13 +10621,13 @@
     </row>
     <row r="934" spans="1:3">
       <c r="A934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B934" t="n">
         <v>0</v>
       </c>
       <c r="C934" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -10635,10 +10635,10 @@
         <v>0</v>
       </c>
       <c r="B935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10654,13 +10654,13 @@
     </row>
     <row r="937" spans="1:3">
       <c r="A937" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B937" t="n">
         <v>0</v>
       </c>
       <c r="C937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -10668,10 +10668,10 @@
         <v>0</v>
       </c>
       <c r="B938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -10687,13 +10687,13 @@
     </row>
     <row r="940" spans="1:3">
       <c r="A940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B940" t="n">
         <v>0</v>
       </c>
       <c r="C940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -10701,10 +10701,10 @@
         <v>0</v>
       </c>
       <c r="B941" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:3">
@@ -10720,13 +10720,13 @@
     </row>
     <row r="943" spans="1:3">
       <c r="A943" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B943" t="n">
         <v>0</v>
       </c>
       <c r="C943" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:3">
@@ -10734,10 +10734,10 @@
         <v>0</v>
       </c>
       <c r="B944" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C944" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10753,13 +10753,13 @@
     </row>
     <row r="946" spans="1:3">
       <c r="A946" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B946" t="n">
         <v>0</v>
       </c>
       <c r="C946" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -10767,10 +10767,10 @@
         <v>0</v>
       </c>
       <c r="B947" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C947" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -10786,13 +10786,13 @@
     </row>
     <row r="949" spans="1:3">
       <c r="A949" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B949" t="n">
         <v>0</v>
       </c>
       <c r="C949" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -10800,10 +10800,10 @@
         <v>0</v>
       </c>
       <c r="B950" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C950" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:3">
@@ -10819,13 +10819,13 @@
     </row>
     <row r="952" spans="1:3">
       <c r="A952" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B952" t="n">
         <v>0</v>
       </c>
       <c r="C952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -10833,10 +10833,10 @@
         <v>0</v>
       </c>
       <c r="B953" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -10852,13 +10852,13 @@
     </row>
     <row r="955" spans="1:3">
       <c r="A955" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B955" t="n">
         <v>0</v>
       </c>
       <c r="C955" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:3">
@@ -10866,10 +10866,10 @@
         <v>0</v>
       </c>
       <c r="B956" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C956" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:3">
@@ -10885,13 +10885,13 @@
     </row>
     <row r="958" spans="1:3">
       <c r="A958" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B958" t="n">
         <v>0</v>
       </c>
       <c r="C958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -10899,10 +10899,10 @@
         <v>0</v>
       </c>
       <c r="B959" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -10918,13 +10918,13 @@
     </row>
     <row r="961" spans="1:3">
       <c r="A961" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B961" t="n">
         <v>0</v>
       </c>
       <c r="C961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -10932,10 +10932,10 @@
         <v>0</v>
       </c>
       <c r="B962" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C962" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:3">
@@ -10951,13 +10951,13 @@
     </row>
     <row r="964" spans="1:3">
       <c r="A964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B964" t="n">
         <v>0</v>
       </c>
       <c r="C964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:3">
@@ -10965,10 +10965,10 @@
         <v>0</v>
       </c>
       <c r="B965" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:3">
@@ -10984,13 +10984,13 @@
     </row>
     <row r="967" spans="1:3">
       <c r="A967" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B967" t="n">
         <v>0</v>
       </c>
       <c r="C967" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="B968" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C968" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -11017,13 +11017,13 @@
     </row>
     <row r="970" spans="1:3">
       <c r="A970" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B970" t="n">
         <v>0</v>
       </c>
       <c r="C970" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -11031,10 +11031,10 @@
         <v>0</v>
       </c>
       <c r="B971" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -11050,13 +11050,13 @@
     </row>
     <row r="973" spans="1:3">
       <c r="A973" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B973" t="n">
         <v>0</v>
       </c>
       <c r="C973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11064,10 +11064,10 @@
         <v>0</v>
       </c>
       <c r="B974" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11083,13 +11083,13 @@
     </row>
     <row r="976" spans="1:3">
       <c r="A976" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B976" t="n">
         <v>0</v>
       </c>
       <c r="C976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11097,10 +11097,10 @@
         <v>0</v>
       </c>
       <c r="B977" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C977" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:3">
@@ -11116,13 +11116,13 @@
     </row>
     <row r="979" spans="1:3">
       <c r="A979" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B979" t="n">
         <v>0</v>
       </c>
       <c r="C979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -11130,10 +11130,10 @@
         <v>0</v>
       </c>
       <c r="B980" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -11149,13 +11149,13 @@
     </row>
     <row r="982" spans="1:3">
       <c r="A982" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B982" t="n">
         <v>0</v>
       </c>
       <c r="C982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -11163,10 +11163,10 @@
         <v>0</v>
       </c>
       <c r="B983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:3">
@@ -11182,13 +11182,13 @@
     </row>
     <row r="985" spans="1:3">
       <c r="A985" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B985" t="n">
         <v>0</v>
       </c>
       <c r="C985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:3">
@@ -11196,10 +11196,10 @@
         <v>0</v>
       </c>
       <c r="B986" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11215,13 +11215,13 @@
     </row>
     <row r="988" spans="1:3">
       <c r="A988" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B988" t="n">
         <v>0</v>
       </c>
       <c r="C988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -11229,10 +11229,10 @@
         <v>0</v>
       </c>
       <c r="B989" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -11248,13 +11248,13 @@
     </row>
     <row r="991" spans="1:3">
       <c r="A991" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B991" t="n">
         <v>0</v>
       </c>
       <c r="C991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -11262,10 +11262,10 @@
         <v>0</v>
       </c>
       <c r="B992" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11281,13 +11281,13 @@
     </row>
     <row r="994" spans="1:3">
       <c r="A994" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B994" t="n">
         <v>0</v>
       </c>
       <c r="C994" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -11295,10 +11295,10 @@
         <v>0</v>
       </c>
       <c r="B995" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -11314,13 +11314,13 @@
     </row>
     <row r="997" spans="1:3">
       <c r="A997" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B997" t="n">
         <v>0</v>
       </c>
       <c r="C997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11328,10 +11328,10 @@
         <v>0</v>
       </c>
       <c r="B998" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -11347,13 +11347,13 @@
     </row>
     <row r="1000" spans="1:3">
       <c r="A1000" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1000" t="n">
         <v>0</v>
       </c>
       <c r="C1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
@@ -11361,10 +11361,10 @@
         <v>0</v>
       </c>
       <c r="B1001" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
@@ -11380,13 +11380,13 @@
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1003" t="n">
         <v>0</v>
       </c>
       <c r="C1003" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="B1004" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1004" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -11416,21 +11416,21 @@
         <v>0</v>
       </c>
       <c r="B1006" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
       <c r="A1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1007" t="n">
         <v>0</v>
       </c>
       <c r="C1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
@@ -11438,10 +11438,10 @@
         <v>0</v>
       </c>
       <c r="B1008" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1008" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -11457,13 +11457,13 @@
     </row>
     <row r="1010" spans="1:3">
       <c r="A1010" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1010" t="n">
         <v>0</v>
       </c>
       <c r="C1010" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="B1011" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1011" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
@@ -11490,13 +11490,13 @@
     </row>
     <row r="1013" spans="1:3">
       <c r="A1013" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1013" t="n">
         <v>0</v>
       </c>
       <c r="C1013" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
@@ -11504,10 +11504,10 @@
         <v>0</v>
       </c>
       <c r="B1014" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1014" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -11523,13 +11523,13 @@
     </row>
     <row r="1016" spans="1:3">
       <c r="A1016" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1016" t="n">
         <v>0</v>
       </c>
       <c r="C1016" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -11537,10 +11537,10 @@
         <v>0</v>
       </c>
       <c r="B1017" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1017" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -11556,13 +11556,13 @@
     </row>
     <row r="1019" spans="1:3">
       <c r="A1019" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1019" t="n">
         <v>0</v>
       </c>
       <c r="C1019" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
@@ -11570,10 +11570,10 @@
         <v>0</v>
       </c>
       <c r="B1020" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1020" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11589,13 +11589,13 @@
     </row>
     <row r="1022" spans="1:3">
       <c r="A1022" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1022" t="n">
         <v>0</v>
       </c>
       <c r="C1022" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
@@ -11603,10 +11603,10 @@
         <v>0</v>
       </c>
       <c r="B1023" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1023" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -11622,13 +11622,13 @@
     </row>
     <row r="1025" spans="1:3">
       <c r="A1025" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1025" t="n">
         <v>0</v>
       </c>
       <c r="C1025" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
@@ -11636,10 +11636,10 @@
         <v>0</v>
       </c>
       <c r="B1026" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1026" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
